--- a/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-1.xlsx
+++ b/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Undecimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FAF218-5684-4867-978F-7261E7D8EB2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784AF5B9-3495-4260-97D9-ADC6EB44CBD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="2760" yWindow="1650" windowWidth="16440" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D38"/>
+  <dimension ref="A3:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,9 +560,10 @@
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -575,8 +576,11 @@
       <c r="D3" s="7">
         <v>43985</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="7">
+        <v>43999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1014</v>
       </c>
@@ -589,8 +593,9 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1451</v>
       </c>
@@ -603,8 +608,9 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>724</v>
       </c>
@@ -617,8 +623,9 @@
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2014</v>
       </c>
@@ -631,8 +638,9 @@
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1595</v>
       </c>
@@ -645,8 +653,9 @@
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>802</v>
       </c>
@@ -659,8 +668,9 @@
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4062</v>
       </c>
@@ -673,8 +683,9 @@
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2503</v>
       </c>
@@ -687,8 +698,9 @@
       <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3515</v>
       </c>
@@ -701,8 +713,9 @@
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3516</v>
       </c>
@@ -715,8 +728,9 @@
       <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>773</v>
       </c>
@@ -729,8 +743,9 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>810</v>
       </c>
@@ -743,8 +758,9 @@
       <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>813</v>
       </c>
@@ -757,8 +773,9 @@
       <c r="D16" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>4063</v>
       </c>
@@ -768,8 +785,9 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>735</v>
       </c>
@@ -782,8 +800,9 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2020</v>
       </c>
@@ -796,8 +815,9 @@
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3870</v>
       </c>
@@ -810,8 +830,9 @@
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2440</v>
       </c>
@@ -824,8 +845,9 @@
       <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>822</v>
       </c>
@@ -838,8 +860,9 @@
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>856</v>
       </c>
@@ -852,8 +875,9 @@
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2648</v>
       </c>
@@ -866,8 +890,9 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>781</v>
       </c>
@@ -880,8 +905,9 @@
       <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>826</v>
       </c>
@@ -894,8 +920,9 @@
       <c r="D26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>3603</v>
       </c>
@@ -908,8 +935,9 @@
       <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>748</v>
       </c>
@@ -922,8 +950,9 @@
       <c r="D28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2448</v>
       </c>
@@ -933,8 +962,9 @@
       <c r="C29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>863</v>
       </c>
@@ -947,8 +977,9 @@
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1395</v>
       </c>
@@ -961,8 +992,9 @@
       <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3187</v>
       </c>
@@ -975,8 +1007,9 @@
       <c r="D32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4093</v>
       </c>
@@ -989,8 +1022,9 @@
       <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>794</v>
       </c>
@@ -1003,8 +1037,9 @@
       <c r="D34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2649</v>
       </c>
@@ -1017,8 +1052,9 @@
       <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>757</v>
       </c>
@@ -1031,8 +1067,9 @@
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>834</v>
       </c>
@@ -1045,8 +1082,9 @@
       <c r="D37" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="C38" s="8" t="s">
         <v>3</v>
       </c>
@@ -1054,6 +1092,7 @@
         <f>COUNTA(D4:D37)</f>
         <v>32</v>
       </c>
+      <c r="E38" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-1.xlsx
+++ b/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Undecimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784AF5B9-3495-4260-97D9-ADC6EB44CBD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5A852B-FDB3-445D-A7A7-4E908FA70FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1650" windowWidth="16440" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:E38"/>
+  <dimension ref="A3:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -579,8 +579,11 @@
       <c r="E3" s="7">
         <v>43999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="7">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1014</v>
       </c>
@@ -594,8 +597,11 @@
         <v>4</v>
       </c>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1451</v>
       </c>
@@ -609,8 +615,11 @@
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>724</v>
       </c>
@@ -624,8 +633,11 @@
         <v>4</v>
       </c>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2014</v>
       </c>
@@ -639,8 +651,11 @@
         <v>4</v>
       </c>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1595</v>
       </c>
@@ -654,8 +669,9 @@
         <v>4</v>
       </c>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>802</v>
       </c>
@@ -669,8 +685,11 @@
         <v>4</v>
       </c>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4062</v>
       </c>
@@ -684,8 +703,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2503</v>
       </c>
@@ -699,8 +721,9 @@
         <v>4</v>
       </c>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3515</v>
       </c>
@@ -714,8 +737,9 @@
         <v>4</v>
       </c>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3516</v>
       </c>
@@ -729,8 +753,9 @@
         <v>4</v>
       </c>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>773</v>
       </c>
@@ -744,8 +769,11 @@
         <v>4</v>
       </c>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>810</v>
       </c>
@@ -759,8 +787,11 @@
         <v>4</v>
       </c>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>813</v>
       </c>
@@ -774,8 +805,9 @@
         <v>4</v>
       </c>
       <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>4063</v>
       </c>
@@ -786,8 +818,11 @@
         <v>18</v>
       </c>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>735</v>
       </c>
@@ -801,8 +836,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2020</v>
       </c>
@@ -816,8 +854,11 @@
         <v>4</v>
       </c>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3870</v>
       </c>
@@ -831,8 +872,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2440</v>
       </c>
@@ -846,8 +890,11 @@
         <v>4</v>
       </c>
       <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>822</v>
       </c>
@@ -861,8 +908,11 @@
         <v>4</v>
       </c>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>856</v>
       </c>
@@ -876,8 +926,9 @@
         <v>4</v>
       </c>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2648</v>
       </c>
@@ -891,8 +942,11 @@
         <v>4</v>
       </c>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>781</v>
       </c>
@@ -906,8 +960,11 @@
         <v>4</v>
       </c>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>826</v>
       </c>
@@ -921,8 +978,9 @@
         <v>4</v>
       </c>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>3603</v>
       </c>
@@ -936,8 +994,11 @@
         <v>4</v>
       </c>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>748</v>
       </c>
@@ -951,8 +1012,11 @@
         <v>4</v>
       </c>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2448</v>
       </c>
@@ -963,8 +1027,11 @@
         <v>30</v>
       </c>
       <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>863</v>
       </c>
@@ -978,8 +1045,11 @@
         <v>4</v>
       </c>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1395</v>
       </c>
@@ -993,8 +1063,11 @@
         <v>4</v>
       </c>
       <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3187</v>
       </c>
@@ -1008,8 +1081,9 @@
         <v>4</v>
       </c>
       <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4093</v>
       </c>
@@ -1023,8 +1097,11 @@
         <v>4</v>
       </c>
       <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>794</v>
       </c>
@@ -1038,8 +1115,11 @@
         <v>4</v>
       </c>
       <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2649</v>
       </c>
@@ -1053,8 +1133,11 @@
         <v>4</v>
       </c>
       <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>757</v>
       </c>
@@ -1068,8 +1151,11 @@
         <v>4</v>
       </c>
       <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>834</v>
       </c>
@@ -1083,8 +1169,11 @@
         <v>4</v>
       </c>
       <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="F37" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="C38" s="8" t="s">
         <v>3</v>
       </c>
@@ -1092,7 +1181,14 @@
         <f>COUNTA(D4:D37)</f>
         <v>32</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="8">
+        <f t="shared" ref="E38:F38" si="0">COUNTA(E4:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <f>COUNTA(F4:F37)</f>
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-1.xlsx
+++ b/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Undecimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5A852B-FDB3-445D-A7A7-4E908FA70FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0897B345-D98F-4F8A-9FE1-CF1216FC0ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="41">
   <si>
     <t>Codigo</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>ZAFRA MORENO LAURA SOFIA</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>CEL</t>
   </si>
 </sst>
 </file>
@@ -548,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:F38"/>
+  <dimension ref="A3:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,11 +565,13 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -582,8 +590,11 @@
       <c r="F3" s="7">
         <v>44020</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="7">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1014</v>
       </c>
@@ -600,8 +611,11 @@
       <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1451</v>
       </c>
@@ -618,8 +632,11 @@
       <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>724</v>
       </c>
@@ -636,8 +653,11 @@
       <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2014</v>
       </c>
@@ -654,8 +674,11 @@
       <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1595</v>
       </c>
@@ -670,8 +693,9 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>802</v>
       </c>
@@ -688,8 +712,11 @@
       <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4062</v>
       </c>
@@ -706,8 +733,11 @@
       <c r="F10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2503</v>
       </c>
@@ -722,8 +752,11 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3515</v>
       </c>
@@ -738,8 +771,11 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3516</v>
       </c>
@@ -754,8 +790,11 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>773</v>
       </c>
@@ -772,8 +811,11 @@
       <c r="F14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>810</v>
       </c>
@@ -790,8 +832,11 @@
       <c r="F15" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>813</v>
       </c>
@@ -806,8 +851,9 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>4063</v>
       </c>
@@ -821,8 +867,9 @@
       <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>735</v>
       </c>
@@ -839,8 +886,9 @@
       <c r="F18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2020</v>
       </c>
@@ -857,8 +905,9 @@
       <c r="F19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3870</v>
       </c>
@@ -875,8 +924,11 @@
       <c r="F20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2440</v>
       </c>
@@ -893,8 +945,11 @@
       <c r="F21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>822</v>
       </c>
@@ -911,8 +966,11 @@
       <c r="F22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>856</v>
       </c>
@@ -927,8 +985,11 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2648</v>
       </c>
@@ -945,8 +1006,11 @@
       <c r="F24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>781</v>
       </c>
@@ -963,8 +1027,11 @@
       <c r="F25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>826</v>
       </c>
@@ -979,8 +1046,11 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>3603</v>
       </c>
@@ -997,8 +1067,11 @@
       <c r="F27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>748</v>
       </c>
@@ -1015,8 +1088,11 @@
       <c r="F28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2448</v>
       </c>
@@ -1030,8 +1106,9 @@
       <c r="F29" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>863</v>
       </c>
@@ -1048,8 +1125,11 @@
       <c r="F30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1395</v>
       </c>
@@ -1066,8 +1146,9 @@
       <c r="F31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3187</v>
       </c>
@@ -1082,8 +1163,9 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4093</v>
       </c>
@@ -1100,8 +1182,11 @@
       <c r="F33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>794</v>
       </c>
@@ -1118,8 +1203,11 @@
       <c r="F34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2649</v>
       </c>
@@ -1136,8 +1224,11 @@
       <c r="F35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>757</v>
       </c>
@@ -1154,8 +1245,11 @@
       <c r="F36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>834</v>
       </c>
@@ -1172,8 +1266,11 @@
       <c r="F37" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="G37" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="C38" s="8" t="s">
         <v>3</v>
       </c>
@@ -1182,11 +1279,15 @@
         <v>32</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" ref="E38:F38" si="0">COUNTA(E4:E37)</f>
+        <f t="shared" ref="E38" si="0">COUNTA(E4:E37)</f>
         <v>0</v>
       </c>
       <c r="F38" s="8">
         <f>COUNTA(F4:F37)</f>
+        <v>26</v>
+      </c>
+      <c r="G38" s="8">
+        <f>COUNTA(G4:G37)</f>
         <v>26</v>
       </c>
     </row>
